--- a/online_translators/xlsx_accuracy/sharp_translation_adjective.xlsx
+++ b/online_translators/xlsx_accuracy/sharp_translation_adjective.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>english</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>german</t>
+  </si>
+  <si>
+    <t>italian</t>
   </si>
   <si>
     <t>russian</t>
@@ -375,7 +378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,7 +386,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,8 +399,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,10 +415,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -421,11 +430,12 @@
       </c>
       <c r="C3" t="s"/>
       <c r="D3" t="s"/>
-      <c r="E3" t="n">
+      <c r="E3" t="s"/>
+      <c r="F3" t="n">
         <v>0.1428571428571428</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -434,24 +444,38 @@
       </c>
       <c r="C4" t="s"/>
       <c r="D4" t="s"/>
-      <c r="E4" t="n">
+      <c r="E4" t="s"/>
+      <c r="F4" t="n">
         <v>0.1666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>0.25</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
